--- a/data/alkalinity/fl_alkalinity.xlsx
+++ b/data/alkalinity/fl_alkalinity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice.carter\Dropbox\Kirby_priming\DOC_priming\data\alkalinity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Dropbox\Kirby_priming\DOC_priming\data\alkalinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A20F8D-8B74-46F5-854A-A1087F1E5A27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A05C38D-A793-4577-829F-E3F7448D1A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11496" xr2:uid="{424C5B6D-93D5-4887-9A10-0CC269547B3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{424C5B6D-93D5-4887-9A10-0CC269547B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -470,17 +481,17 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -506,7 +517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,7 +535,7 @@
         <v>5.2000000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -542,7 +553,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -560,7 +571,7 @@
         <v>2.948</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -587,7 +598,7 @@
         <v>1.6159999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -614,7 +625,7 @@
         <v>1.6239999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -641,7 +652,7 @@
         <v>1.6480000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -668,7 +679,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -695,7 +706,7 @@
         <v>1.6519999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -722,7 +733,7 @@
         <v>1.6960000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -749,7 +760,7 @@
         <v>1.6079999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -776,7 +787,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -803,7 +814,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -830,7 +841,7 @@
         <v>1.6039999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -857,7 +868,7 @@
         <v>1.6039999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -884,7 +895,7 @@
         <v>1.6280000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -911,7 +922,7 @@
         <v>1.6239999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -938,7 +949,7 @@
         <v>1.6039999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -965,7 +976,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
